--- a/JP-Telecom/NTT-law-news.xlsx
+++ b/JP-Telecom/NTT-law-news.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+  <si>
+    <t>議案審議情報</t>
+  </si>
+  <si>
+    <t>https://www.sangiin.go.jp/japanese/joho1/kousei/gian/213/meisai/m213080213033.htm</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +111,12 @@
     <t>NTT法が廃止され、NTTが自由に通信インフラの運用や価格設定を行なえるようになることを、3社は懸念している（現在の固定電話や光ファイバーを利用したインターネット回線はNTTが保有するインフラを使用）
 収益化の難しい過疎地の通信環境の維持という問題もあり
 国家安全保障上の問題：これまでは外資には出資規制がありましたが、NTT法廃止後はそれも可能。</t>
+  </si>
+  <si>
+    <t>令和6年3月1日（金）定例閣議案件</t>
+  </si>
+  <si>
+    <t>https://www.kantei.go.jp/jp/kakugi/2024/kakugi-2024030101.html</t>
   </si>
   <si>
     <t>日本電信電話株式会社等に関する法律の一部を改正する法律案</t>
@@ -2804,16 +2816,16 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Meiryo UI"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Meiryo UI"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3299,7 +3311,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3429,7 +3441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3451,16 +3463,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7124,10 +7142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7139,147 +7157,169 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="39" spans="1:4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" ht="75" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" ht="60" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>41163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" ht="75" spans="1:4">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>43487</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" ht="45" spans="1:4">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>45174</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="120" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>45218</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="135" spans="1:4">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>45250</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="120" spans="1:4">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>45259</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="13" ht="39" spans="1:4">
-      <c r="A13" s="8">
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="11">
+        <v>45352</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" ht="39" spans="1:4">
+      <c r="A14" s="11">
         <v>45386</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7292,7 +7332,9 @@
     <hyperlink ref="C5" r:id="rId7" display="https://www.soumu.go.jp/menu_seisaku/ictseisaku/denkitsushin_suishin/tetsuzuki/"/>
     <hyperlink ref="C11" r:id="rId8" display="https://japan.cnet.com/article/35211759/" tooltip="https://japan.cnet.com/article/35211759/"/>
     <hyperlink ref="C12" r:id="rId9" display="https://news.yahoo.co.jp/articles/acfe5b72193fa4f2345feb380ff4fdc0ea3482e5?page=1" tooltip="https://news.yahoo.co.jp/articles/acfe5b72193fa4f2345feb380ff4fdc0ea3482e5?page=1"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://www.shugiin.go.jp/internet/itdb_gian.nsf/html/gian/honbun/houan/g21309033.htm"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://www.shugiin.go.jp/internet/itdb_gian.nsf/html/gian/honbun/houan/g21309033.htm"/>
+    <hyperlink ref="C1" r:id="rId11" display="https://www.sangiin.go.jp/japanese/joho1/kousei/gian/213/meisai/m213080213033.htm"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://www.kantei.go.jp/jp/kakugi/2024/kakugi-2024030101.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7320,223 +7362,223 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="3:5">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" ht="44" spans="3:5">
       <c r="C67" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" ht="104" spans="3:5">
       <c r="C68" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="88" spans="3:5">
       <c r="C69" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="3:5">
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" ht="131" spans="3:5">
       <c r="C75" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="192" spans="3:5">
       <c r="C76" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" ht="74" spans="3:5">
       <c r="C77" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="45" spans="3:5">
       <c r="C78" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" ht="87" spans="3:5">
       <c r="C79" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
